--- a/Documents/Task Burn Down_Team_apocalypse.xlsx
+++ b/Documents/Task Burn Down_Team_apocalypse.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Dropbox\ICT1\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="150" yWindow="540" windowWidth="15015" windowHeight="9915"/>
+    <workbookView xWindow="156" yWindow="540" windowWidth="15012" windowHeight="9912"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint-Backlog" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -20,7 +25,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="B24" authorId="0">
+    <comment ref="B24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -34,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F24" authorId="1">
+    <comment ref="F24" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G24" authorId="1">
+    <comment ref="G24" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
   <si>
     <t>Sprint Goal</t>
   </si>
@@ -104,15 +109,6 @@
   </si>
   <si>
     <t>Total man hours/day</t>
-  </si>
-  <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Week 3</t>
   </si>
   <si>
     <t>Task ID</t>
@@ -163,13 +159,7 @@
     <t>Display all the results according to search criteria</t>
   </si>
   <si>
-    <t>Developing the initial user interface for search engine</t>
-  </si>
-  <si>
     <t>Sprint Cycle: 3 Weeks</t>
-  </si>
-  <si>
-    <t>Sprint Dates: April 1 - April 18,2014</t>
   </si>
   <si>
     <t>To finish all the project</t>
@@ -186,6 +176,69 @@
   <si>
     <t>Testing sign-in and sign-up functionality for user registration</t>
   </si>
+  <si>
+    <t>Developing the initial user interface for creating projects</t>
+  </si>
+  <si>
+    <t>Developing the initial user interface for searching and sorting projects</t>
+  </si>
+  <si>
+    <t>Testing the initial user interface for creating projects</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Test the projects function</t>
+  </si>
+  <si>
+    <t>adjust the categories for new Platform</t>
+  </si>
+  <si>
+    <t>login with social media account</t>
+  </si>
+  <si>
+    <t>share to social media function</t>
+  </si>
+  <si>
+    <t>backup function (database part)</t>
+  </si>
+  <si>
+    <t>backup function (website part)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redesign the main page </t>
+  </si>
+  <si>
+    <t>scope statement report</t>
+  </si>
+  <si>
+    <t>final presentation and demonstration</t>
+  </si>
+  <si>
+    <t>Preparetation of final audit</t>
+  </si>
+  <si>
+    <t>subsites functions developing</t>
+  </si>
+  <si>
+    <t>subsites functions testing</t>
+  </si>
+  <si>
+    <t>information system testing</t>
+  </si>
+  <si>
+    <t>crowd funding system testing</t>
+  </si>
+  <si>
+    <t>Sprint Dates: April 1 - April 21,2014</t>
+  </si>
 </sst>
 </file>
 
@@ -194,7 +247,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="98" x14ac:knownFonts="1">
+  <fonts count="96" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -482,6 +535,37 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -495,7 +579,27 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -503,11 +607,16 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -516,7 +625,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -527,6 +642,7 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -553,27 +669,31 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -596,90 +716,9 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -835,7 +874,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -910,18 +949,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="65">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -1455,19 +1488,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1491,21 +1511,6 @@
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1681,7 +1686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1788,149 +1793,143 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="54" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="53" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="71" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="74" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="80" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="12" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="72" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="74" fillId="12" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="76" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="82" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="13" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="75" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="14" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1938,75 +1937,90 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="14" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="13" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="93" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="93" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="13" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="14" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2017,6 +2031,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2058,64 +2075,59 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>#REF!</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint-Backlog'!$H$38:$AB$38</c:f>
+              <c:f>'Sprint-Backlog'!$H$50:$AB$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>93</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>88.5</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>88.5</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>82.5</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>33</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>17</c:v>
@@ -2136,6 +2148,23 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2153,14 +2182,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>#REF!</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint-Backlog'!$H$39:$AB$39</c:f>
+              <c:f>'Sprint-Backlog'!$H$51:$AB$51</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2231,6 +2255,23 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredCategoryTitle>
+                <c15:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                  </c:multiLvlStrRef>
+                </c15:cat>
+              </c15:filteredCategoryTitle>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2240,13 +2281,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="38598656"/>
-        <c:axId val="59927936"/>
+        <c:axId val="462986272"/>
+        <c:axId val="462986816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="38598656"/>
+        <c:axId val="462986272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2285,7 +2325,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59927936"/>
+        <c:crossAx val="462986816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2293,7 +2333,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59927936"/>
+        <c:axId val="462986816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2338,7 +2378,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38598656"/>
+        <c:crossAx val="462986272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2409,7 +2449,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2493,7 +2533,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2528,7 +2568,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2737,29 +2777,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB49"/>
+  <dimension ref="A1:AB61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="101" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="41"/>
+    <col min="1" max="1" width="9.88671875" style="41"/>
     <col min="2" max="2" width="22" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" style="48" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="9" customWidth="1"/>
-    <col min="10" max="16" width="13.42578125" style="9" customWidth="1"/>
-    <col min="17" max="17" width="21.42578125" style="9" customWidth="1"/>
-    <col min="18" max="27" width="13.42578125" style="9" customWidth="1"/>
-    <col min="28" max="28" width="21.28515625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" style="48" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" style="9" customWidth="1"/>
+    <col min="10" max="16" width="13.44140625" style="9" customWidth="1"/>
+    <col min="17" max="17" width="21.44140625" style="9" customWidth="1"/>
+    <col min="18" max="27" width="13.44140625" style="9" customWidth="1"/>
+    <col min="28" max="28" width="21.33203125" style="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="60"/>
       <c r="B1" s="59"/>
       <c r="C1" s="59"/>
@@ -2789,11 +2829,11 @@
       <c r="AA1" s="59"/>
       <c r="AB1" s="60"/>
     </row>
-    <row r="2" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="60"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="59"/>
@@ -2819,13 +2859,13 @@
       <c r="AA2" s="59"/>
       <c r="AB2" s="60"/>
     </row>
-    <row r="3" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="60"/>
-      <c r="B3" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
+      <c r="B3" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="59"/>
@@ -2851,15 +2891,15 @@
       <c r="AA3" s="59"/>
       <c r="AB3" s="60"/>
     </row>
-    <row r="4" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="60"/>
       <c r="B4" s="34" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="59"/>
@@ -2883,13 +2923,13 @@
       <c r="AA4" s="59"/>
       <c r="AB4" s="60"/>
     </row>
-    <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="60"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="59"/>
@@ -2913,7 +2953,7 @@
       <c r="AA5" s="59"/>
       <c r="AB5" s="60"/>
     </row>
-    <row r="6" spans="1:28" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="60"/>
       <c r="B6" s="27" t="s">
         <v>0</v>
@@ -2922,8 +2962,8 @@
       <c r="D6" s="27"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
       <c r="I6" s="59"/>
       <c r="J6" s="59"/>
       <c r="K6" s="59"/>
@@ -2945,15 +2985,15 @@
       <c r="AA6" s="59"/>
       <c r="AB6" s="60"/>
     </row>
-    <row r="7" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
-      <c r="B7" s="106" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="80"/>
+      <c r="B7" s="105" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="18"/>
       <c r="H7" s="59"/>
       <c r="I7" s="59"/>
@@ -2977,7 +3017,7 @@
       <c r="AA7" s="59"/>
       <c r="AB7" s="60"/>
     </row>
-    <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="60"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -3007,13 +3047,13 @@
       <c r="AA8" s="59"/>
       <c r="AB8" s="60"/>
     </row>
-    <row r="9" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="60"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="59"/>
@@ -3037,19 +3077,19 @@
       <c r="AA9" s="59"/>
       <c r="AB9" s="60"/>
     </row>
-    <row r="10" spans="1:28" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="60"/>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
       <c r="E10" s="6"/>
       <c r="F10" s="48"/>
       <c r="G10" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="77"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="59"/>
       <c r="J10" s="16"/>
       <c r="K10" s="37" t="s">
@@ -3073,7 +3113,7 @@
       <c r="AA10" s="59"/>
       <c r="AB10" s="60"/>
     </row>
-    <row r="11" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="60"/>
       <c r="B11" s="21" t="s">
         <v>4</v>
@@ -3088,7 +3128,7 @@
       <c r="H11" s="59"/>
       <c r="I11" s="59"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="79" t="s">
+      <c r="K11" s="78" t="s">
         <v>5</v>
       </c>
       <c r="L11" s="18"/>
@@ -3109,7 +3149,7 @@
       <c r="AA11" s="59"/>
       <c r="AB11" s="60"/>
     </row>
-    <row r="12" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="60"/>
       <c r="B12" s="21" t="s">
         <v>6</v>
@@ -3124,7 +3164,7 @@
       <c r="H12" s="59"/>
       <c r="I12" s="59"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="67" t="s">
+      <c r="K12" s="66" t="s">
         <v>7</v>
       </c>
       <c r="L12" s="18"/>
@@ -3145,7 +3185,7 @@
       <c r="AA12" s="59"/>
       <c r="AB12" s="60"/>
     </row>
-    <row r="13" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="60"/>
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
@@ -3157,7 +3197,7 @@
       <c r="H13" s="59"/>
       <c r="I13" s="59"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="67" t="s">
+      <c r="K13" s="66" t="s">
         <v>8</v>
       </c>
       <c r="L13" s="18"/>
@@ -3178,7 +3218,7 @@
       <c r="AA13" s="59"/>
       <c r="AB13" s="60"/>
     </row>
-    <row r="14" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="60"/>
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
@@ -3211,7 +3251,7 @@
       <c r="AA14" s="59"/>
       <c r="AB14" s="60"/>
     </row>
-    <row r="15" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="60"/>
       <c r="C15" s="59"/>
       <c r="D15" s="59"/>
@@ -3242,7 +3282,7 @@
       <c r="AA15" s="59"/>
       <c r="AB15" s="60"/>
     </row>
-    <row r="16" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="60"/>
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
@@ -3272,7 +3312,7 @@
       <c r="AA16" s="59"/>
       <c r="AB16" s="60"/>
     </row>
-    <row r="17" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="60"/>
       <c r="B17" s="59"/>
       <c r="C17" s="59"/>
@@ -3284,7 +3324,7 @@
       <c r="I17" s="59"/>
       <c r="J17" s="59"/>
       <c r="K17" s="59"/>
-      <c r="L17" s="104"/>
+      <c r="L17" s="101"/>
       <c r="M17" s="59"/>
       <c r="N17" s="59"/>
       <c r="O17" s="59"/>
@@ -3302,7 +3342,7 @@
       <c r="AA17" s="59"/>
       <c r="AB17" s="60"/>
     </row>
-    <row r="18" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="60"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -3336,7 +3376,7 @@
       <c r="AA18" s="59"/>
       <c r="AB18" s="60"/>
     </row>
-    <row r="19" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="60"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -3371,7 +3411,7 @@
       <c r="AA19" s="59"/>
       <c r="AB19" s="60"/>
     </row>
-    <row r="20" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="60"/>
       <c r="B20" s="59"/>
       <c r="C20" s="59"/>
@@ -3401,17 +3441,17 @@
       <c r="AA20" s="59"/>
       <c r="AB20" s="60"/>
     </row>
-    <row r="21" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="60"/>
-      <c r="B21" s="81" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
+      <c r="B21" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
       <c r="I21" s="59"/>
       <c r="J21" s="59"/>
       <c r="K21" s="59"/>
@@ -3433,7 +3473,7 @@
       <c r="AA21" s="59"/>
       <c r="AB21" s="60"/>
     </row>
-    <row r="22" spans="1:28" s="62" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" s="62" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="60"/>
       <c r="B22" s="59"/>
       <c r="C22" s="59"/>
@@ -3463,25 +3503,25 @@
       <c r="AA22" s="32"/>
       <c r="AB22" s="23"/>
     </row>
-    <row r="23" spans="1:28" s="62" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" s="62" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="60"/>
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="89"/>
+      <c r="F23" s="87"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="108" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="109"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="109"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="109"/>
-      <c r="O23" s="110" t="s">
-        <v>13</v>
+      <c r="H23" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="109" t="s">
+        <v>38</v>
       </c>
       <c r="P23" s="110"/>
       <c r="Q23" s="110"/>
@@ -3489,1449 +3529,1661 @@
       <c r="S23" s="110"/>
       <c r="T23" s="110"/>
       <c r="U23" s="110"/>
-      <c r="V23" s="109" t="s">
-        <v>14</v>
-      </c>
-      <c r="W23" s="109"/>
-      <c r="X23" s="109"/>
-      <c r="Y23" s="109"/>
-      <c r="Z23" s="109"/>
-      <c r="AA23" s="109"/>
-      <c r="AB23" s="109"/>
-    </row>
-    <row r="24" spans="1:28" s="78" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V23" s="111" t="s">
+        <v>39</v>
+      </c>
+      <c r="W23" s="108"/>
+      <c r="X23" s="108"/>
+      <c r="Y23" s="108"/>
+      <c r="Z23" s="108"/>
+      <c r="AA23" s="108"/>
+      <c r="AB23" s="108"/>
+    </row>
+    <row r="24" spans="1:28" s="77" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="G24" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="73" t="s">
+      <c r="H24" s="20">
+        <v>41730</v>
+      </c>
+      <c r="I24" s="20">
+        <v>41731</v>
+      </c>
+      <c r="J24" s="20">
+        <v>41732</v>
+      </c>
+      <c r="K24" s="20">
+        <v>41733</v>
+      </c>
+      <c r="L24" s="20">
+        <v>41734</v>
+      </c>
+      <c r="M24" s="20">
+        <v>41735</v>
+      </c>
+      <c r="N24" s="20">
+        <v>41736</v>
+      </c>
+      <c r="O24" s="20">
+        <v>41737</v>
+      </c>
+      <c r="P24" s="20">
+        <v>41738</v>
+      </c>
+      <c r="Q24" s="20">
+        <v>41739</v>
+      </c>
+      <c r="R24" s="20">
+        <v>41740</v>
+      </c>
+      <c r="S24" s="20">
+        <v>41741</v>
+      </c>
+      <c r="T24" s="20">
+        <v>41742</v>
+      </c>
+      <c r="U24" s="20">
+        <v>41743</v>
+      </c>
+      <c r="V24" s="20">
+        <v>41744</v>
+      </c>
+      <c r="W24" s="20">
+        <v>41745</v>
+      </c>
+      <c r="X24" s="20">
+        <v>41746</v>
+      </c>
+      <c r="Y24" s="20">
+        <v>41747</v>
+      </c>
+      <c r="Z24" s="20">
+        <v>41748</v>
+      </c>
+      <c r="AA24" s="20">
+        <v>41749</v>
+      </c>
+      <c r="AB24" s="20">
+        <v>41750</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" s="26" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="81">
+        <v>1</v>
+      </c>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="84">
         <v>3</v>
       </c>
-      <c r="E24" s="61" t="s">
+      <c r="H25" s="81">
+        <v>3</v>
+      </c>
+      <c r="I25" s="82">
+        <v>0</v>
+      </c>
+      <c r="J25" s="82">
+        <v>0</v>
+      </c>
+      <c r="K25" s="82">
+        <v>0</v>
+      </c>
+      <c r="L25" s="82">
+        <v>0</v>
+      </c>
+      <c r="M25" s="82">
+        <v>0</v>
+      </c>
+      <c r="N25" s="82">
+        <v>0</v>
+      </c>
+      <c r="O25" s="82">
+        <v>0</v>
+      </c>
+      <c r="P25" s="82">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="82">
+        <v>0</v>
+      </c>
+      <c r="R25" s="82">
+        <v>0</v>
+      </c>
+      <c r="S25" s="82">
+        <v>0</v>
+      </c>
+      <c r="T25" s="82">
+        <v>0</v>
+      </c>
+      <c r="U25" s="97">
+        <v>0</v>
+      </c>
+      <c r="V25" s="94">
+        <v>0</v>
+      </c>
+      <c r="W25" s="82">
+        <v>0</v>
+      </c>
+      <c r="X25" s="82">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="82">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="82">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="82">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" s="26" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="81">
+        <v>2</v>
+      </c>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="90" t="s">
+      <c r="G26" s="84">
+        <v>8</v>
+      </c>
+      <c r="H26" s="81">
+        <v>8</v>
+      </c>
+      <c r="I26" s="82">
+        <v>4</v>
+      </c>
+      <c r="J26" s="82">
+        <v>2</v>
+      </c>
+      <c r="K26" s="82">
+        <v>0</v>
+      </c>
+      <c r="L26" s="82">
+        <v>0</v>
+      </c>
+      <c r="M26" s="82">
+        <v>0</v>
+      </c>
+      <c r="N26" s="82">
+        <v>0</v>
+      </c>
+      <c r="O26" s="82">
+        <v>0</v>
+      </c>
+      <c r="P26" s="82">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="82">
+        <v>0</v>
+      </c>
+      <c r="R26" s="82">
+        <v>0</v>
+      </c>
+      <c r="S26" s="82">
+        <v>0</v>
+      </c>
+      <c r="T26" s="82">
+        <v>0</v>
+      </c>
+      <c r="U26" s="82">
+        <v>0</v>
+      </c>
+      <c r="V26" s="82">
+        <v>0</v>
+      </c>
+      <c r="W26" s="82">
+        <v>0</v>
+      </c>
+      <c r="X26" s="82">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="82">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="82">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="82">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" s="26" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="81">
+        <v>3</v>
+      </c>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="84">
+        <v>2</v>
+      </c>
+      <c r="H27" s="81">
+        <v>2</v>
+      </c>
+      <c r="I27" s="82">
+        <v>0</v>
+      </c>
+      <c r="J27" s="82">
+        <v>0</v>
+      </c>
+      <c r="K27" s="82">
+        <v>0</v>
+      </c>
+      <c r="L27" s="82">
+        <v>0</v>
+      </c>
+      <c r="M27" s="82">
+        <v>0</v>
+      </c>
+      <c r="N27" s="82">
+        <v>0</v>
+      </c>
+      <c r="O27" s="82">
+        <v>0</v>
+      </c>
+      <c r="P27" s="82">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="82">
+        <v>0</v>
+      </c>
+      <c r="R27" s="82">
+        <v>0</v>
+      </c>
+      <c r="S27" s="82">
+        <v>0</v>
+      </c>
+      <c r="T27" s="82">
+        <v>0</v>
+      </c>
+      <c r="U27" s="82">
+        <v>0</v>
+      </c>
+      <c r="V27" s="82">
+        <v>0</v>
+      </c>
+      <c r="W27" s="82">
+        <v>0</v>
+      </c>
+      <c r="X27" s="82">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="82">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="82">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="82">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" s="26" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="90"/>
+      <c r="B28" s="81">
+        <v>4</v>
+      </c>
+      <c r="C28" s="92"/>
+      <c r="D28" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="93">
+        <v>4</v>
+      </c>
+      <c r="H28" s="91">
+        <v>4</v>
+      </c>
+      <c r="I28" s="92">
+        <v>4</v>
+      </c>
+      <c r="J28" s="92">
+        <v>4</v>
+      </c>
+      <c r="K28" s="92">
+        <v>4</v>
+      </c>
+      <c r="L28" s="92">
+        <v>4</v>
+      </c>
+      <c r="M28" s="92">
+        <v>4</v>
+      </c>
+      <c r="N28" s="97">
+        <v>0</v>
+      </c>
+      <c r="O28" s="98">
+        <v>0</v>
+      </c>
+      <c r="P28" s="92">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="92">
+        <v>0</v>
+      </c>
+      <c r="R28" s="92">
+        <v>0</v>
+      </c>
+      <c r="S28" s="92">
+        <v>0</v>
+      </c>
+      <c r="T28" s="92">
+        <v>0</v>
+      </c>
+      <c r="U28" s="97">
+        <v>0</v>
+      </c>
+      <c r="V28" s="94">
+        <v>2</v>
+      </c>
+      <c r="W28" s="92">
+        <v>0</v>
+      </c>
+      <c r="X28" s="92">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="92">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="92">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" s="26" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="90"/>
+      <c r="B29" s="81">
+        <v>5</v>
+      </c>
+      <c r="C29" s="92"/>
+      <c r="D29" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="93">
+        <v>10</v>
+      </c>
+      <c r="H29" s="91">
+        <v>10</v>
+      </c>
+      <c r="I29" s="92">
+        <v>10</v>
+      </c>
+      <c r="J29" s="92">
+        <v>10</v>
+      </c>
+      <c r="K29" s="92">
+        <v>10</v>
+      </c>
+      <c r="L29" s="92">
+        <v>10</v>
+      </c>
+      <c r="M29" s="92">
+        <v>10</v>
+      </c>
+      <c r="N29" s="97">
+        <v>10</v>
+      </c>
+      <c r="O29" s="98">
+        <v>6</v>
+      </c>
+      <c r="P29" s="92">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="92">
+        <v>6</v>
+      </c>
+      <c r="R29" s="92">
+        <v>4</v>
+      </c>
+      <c r="S29" s="92">
+        <v>4</v>
+      </c>
+      <c r="T29" s="92">
+        <v>4</v>
+      </c>
+      <c r="U29" s="97">
+        <v>2</v>
+      </c>
+      <c r="V29" s="94">
+        <v>2</v>
+      </c>
+      <c r="W29" s="92">
+        <v>2</v>
+      </c>
+      <c r="X29" s="92">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="92">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="92">
+        <v>2</v>
+      </c>
+      <c r="AA29" s="92">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" s="26" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="81">
+        <v>6</v>
+      </c>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="84">
+        <v>36</v>
+      </c>
+      <c r="H30" s="81">
+        <v>36</v>
+      </c>
+      <c r="I30" s="82">
+        <v>36</v>
+      </c>
+      <c r="J30" s="82">
+        <v>24</v>
+      </c>
+      <c r="K30" s="82">
+        <v>24</v>
+      </c>
+      <c r="L30" s="82">
+        <v>24</v>
+      </c>
+      <c r="M30" s="82">
+        <v>24</v>
+      </c>
+      <c r="N30" s="92">
+        <v>24</v>
+      </c>
+      <c r="O30" s="92">
+        <v>16</v>
+      </c>
+      <c r="P30" s="82">
+        <v>16</v>
+      </c>
+      <c r="Q30" s="82">
+        <v>16</v>
+      </c>
+      <c r="R30" s="82">
+        <v>8</v>
+      </c>
+      <c r="S30" s="82">
+        <v>8</v>
+      </c>
+      <c r="T30" s="82">
+        <v>8</v>
+      </c>
+      <c r="U30" s="97">
+        <v>4</v>
+      </c>
+      <c r="V30" s="94">
+        <v>4</v>
+      </c>
+      <c r="W30" s="82">
+        <v>4</v>
+      </c>
+      <c r="X30" s="82">
+        <v>4</v>
+      </c>
+      <c r="Y30" s="82">
+        <v>4</v>
+      </c>
+      <c r="Z30" s="82">
+        <v>4</v>
+      </c>
+      <c r="AA30" s="82">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" s="26" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="81">
+        <v>7</v>
+      </c>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="84">
+        <v>36</v>
+      </c>
+      <c r="H31" s="81">
+        <v>6</v>
+      </c>
+      <c r="I31" s="82">
+        <v>6</v>
+      </c>
+      <c r="J31" s="82">
+        <v>6</v>
+      </c>
+      <c r="K31" s="82">
+        <v>6</v>
+      </c>
+      <c r="L31" s="82">
+        <v>6</v>
+      </c>
+      <c r="M31" s="82">
+        <v>6</v>
+      </c>
+      <c r="N31" s="97">
+        <v>6</v>
+      </c>
+      <c r="O31" s="98">
+        <v>6</v>
+      </c>
+      <c r="P31" s="82">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="82">
+        <v>3</v>
+      </c>
+      <c r="R31" s="82">
+        <v>3</v>
+      </c>
+      <c r="S31" s="82">
+        <v>3</v>
+      </c>
+      <c r="T31" s="82">
+        <v>3</v>
+      </c>
+      <c r="U31" s="97">
+        <v>3</v>
+      </c>
+      <c r="V31" s="94">
+        <v>0</v>
+      </c>
+      <c r="W31" s="82">
+        <v>0</v>
+      </c>
+      <c r="X31" s="82">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="82">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="82">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="82">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" s="26" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="90"/>
+      <c r="B32" s="91">
+        <v>8</v>
+      </c>
+      <c r="C32" s="92"/>
+      <c r="D32" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="93">
+        <v>10</v>
+      </c>
+      <c r="H32" s="93">
+        <v>10</v>
+      </c>
+      <c r="I32" s="93">
+        <v>10</v>
+      </c>
+      <c r="J32" s="93">
+        <v>10</v>
+      </c>
+      <c r="K32" s="93">
+        <v>10</v>
+      </c>
+      <c r="L32" s="93">
+        <v>10</v>
+      </c>
+      <c r="M32" s="93">
+        <v>10</v>
+      </c>
+      <c r="N32" s="93">
+        <v>10</v>
+      </c>
+      <c r="O32" s="93">
+        <v>10</v>
+      </c>
+      <c r="P32" s="93">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="93">
+        <v>10</v>
+      </c>
+      <c r="R32" s="92"/>
+      <c r="S32" s="92"/>
+      <c r="T32" s="92"/>
+      <c r="U32" s="97"/>
+      <c r="V32" s="94"/>
+      <c r="W32" s="92"/>
+      <c r="X32" s="92"/>
+      <c r="Y32" s="92"/>
+      <c r="Z32" s="92"/>
+      <c r="AA32" s="92"/>
+      <c r="AB32" s="100"/>
+    </row>
+    <row r="33" spans="1:28" s="26" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="90"/>
+      <c r="B33" s="91">
+        <v>9</v>
+      </c>
+      <c r="C33" s="92"/>
+      <c r="D33" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="93">
+        <v>3</v>
+      </c>
+      <c r="H33" s="93">
+        <v>3</v>
+      </c>
+      <c r="I33" s="93">
+        <v>3</v>
+      </c>
+      <c r="J33" s="93">
+        <v>3</v>
+      </c>
+      <c r="K33" s="93">
+        <v>3</v>
+      </c>
+      <c r="L33" s="93">
+        <v>3</v>
+      </c>
+      <c r="M33" s="93">
+        <v>3</v>
+      </c>
+      <c r="N33" s="93">
+        <v>3</v>
+      </c>
+      <c r="O33" s="93">
+        <v>3</v>
+      </c>
+      <c r="P33" s="93">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="92"/>
+      <c r="R33" s="92"/>
+      <c r="S33" s="92"/>
+      <c r="T33" s="92"/>
+      <c r="U33" s="97"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="92"/>
+      <c r="X33" s="92"/>
+      <c r="Y33" s="92"/>
+      <c r="Z33" s="92"/>
+      <c r="AA33" s="92"/>
+      <c r="AB33" s="100"/>
+    </row>
+    <row r="34" spans="1:28" s="26" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="90"/>
+      <c r="B34" s="91">
+        <v>10</v>
+      </c>
+      <c r="C34" s="92"/>
+      <c r="D34" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="93">
+        <v>4</v>
+      </c>
+      <c r="H34" s="93">
+        <v>4</v>
+      </c>
+      <c r="I34" s="93">
+        <v>4</v>
+      </c>
+      <c r="J34" s="93">
+        <v>4</v>
+      </c>
+      <c r="K34" s="93">
+        <v>4</v>
+      </c>
+      <c r="L34" s="93">
+        <v>4</v>
+      </c>
+      <c r="M34" s="93">
+        <v>4</v>
+      </c>
+      <c r="N34" s="93">
+        <v>4</v>
+      </c>
+      <c r="O34" s="93">
+        <v>4</v>
+      </c>
+      <c r="P34" s="93">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="93">
+        <v>4</v>
+      </c>
+      <c r="R34" s="92"/>
+      <c r="S34" s="92"/>
+      <c r="T34" s="92"/>
+      <c r="U34" s="97"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="92"/>
+      <c r="X34" s="92"/>
+      <c r="Y34" s="92"/>
+      <c r="Z34" s="92"/>
+      <c r="AA34" s="92"/>
+      <c r="AB34" s="100"/>
+    </row>
+    <row r="35" spans="1:28" s="26" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="90"/>
+      <c r="B35" s="91">
+        <v>11</v>
+      </c>
+      <c r="C35" s="92"/>
+      <c r="D35" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="104" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="93">
+        <v>12</v>
+      </c>
+      <c r="H35" s="93">
+        <v>12</v>
+      </c>
+      <c r="I35" s="93">
+        <v>12</v>
+      </c>
+      <c r="J35" s="93">
+        <v>12</v>
+      </c>
+      <c r="K35" s="93">
+        <v>12</v>
+      </c>
+      <c r="L35" s="93">
+        <v>12</v>
+      </c>
+      <c r="M35" s="93">
+        <v>12</v>
+      </c>
+      <c r="N35" s="93">
+        <v>12</v>
+      </c>
+      <c r="O35" s="93">
+        <v>12</v>
+      </c>
+      <c r="P35" s="93">
+        <v>12</v>
+      </c>
+      <c r="Q35" s="93">
+        <v>12</v>
+      </c>
+      <c r="R35" s="93">
+        <v>12</v>
+      </c>
+      <c r="S35" s="92"/>
+      <c r="T35" s="92"/>
+      <c r="U35" s="97"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="92"/>
+      <c r="X35" s="92"/>
+      <c r="Y35" s="92"/>
+      <c r="Z35" s="92"/>
+      <c r="AA35" s="92"/>
+      <c r="AB35" s="100"/>
+    </row>
+    <row r="36" spans="1:28" s="26" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="90"/>
+      <c r="B36" s="91">
+        <v>12</v>
+      </c>
+      <c r="C36" s="92"/>
+      <c r="D36" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="104" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="93">
+        <v>8</v>
+      </c>
+      <c r="H36" s="93">
+        <v>8</v>
+      </c>
+      <c r="I36" s="93">
+        <v>8</v>
+      </c>
+      <c r="J36" s="93">
+        <v>8</v>
+      </c>
+      <c r="K36" s="93">
+        <v>8</v>
+      </c>
+      <c r="L36" s="93">
+        <v>8</v>
+      </c>
+      <c r="M36" s="93">
+        <v>8</v>
+      </c>
+      <c r="N36" s="93">
+        <v>8</v>
+      </c>
+      <c r="O36" s="93">
+        <v>8</v>
+      </c>
+      <c r="P36" s="93">
+        <v>8</v>
+      </c>
+      <c r="Q36" s="93">
+        <v>8</v>
+      </c>
+      <c r="R36" s="92"/>
+      <c r="S36" s="92"/>
+      <c r="T36" s="92"/>
+      <c r="U36" s="97"/>
+      <c r="V36" s="94"/>
+      <c r="W36" s="92"/>
+      <c r="X36" s="92"/>
+      <c r="Y36" s="92"/>
+      <c r="Z36" s="92"/>
+      <c r="AA36" s="92"/>
+      <c r="AB36" s="100"/>
+    </row>
+    <row r="37" spans="1:28" s="26" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="90"/>
+      <c r="B37" s="91">
+        <v>13</v>
+      </c>
+      <c r="C37" s="92"/>
+      <c r="D37" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="93">
+        <v>10</v>
+      </c>
+      <c r="H37" s="93">
+        <v>10</v>
+      </c>
+      <c r="I37" s="93">
+        <v>10</v>
+      </c>
+      <c r="J37" s="93">
+        <v>10</v>
+      </c>
+      <c r="K37" s="93">
+        <v>10</v>
+      </c>
+      <c r="L37" s="93">
+        <v>10</v>
+      </c>
+      <c r="M37" s="93">
+        <v>10</v>
+      </c>
+      <c r="N37" s="93">
+        <v>10</v>
+      </c>
+      <c r="O37" s="93">
+        <v>10</v>
+      </c>
+      <c r="P37" s="93">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="92"/>
+      <c r="R37" s="92"/>
+      <c r="S37" s="92"/>
+      <c r="T37" s="92"/>
+      <c r="U37" s="97"/>
+      <c r="V37" s="94"/>
+      <c r="W37" s="92"/>
+      <c r="X37" s="92"/>
+      <c r="Y37" s="92"/>
+      <c r="Z37" s="92"/>
+      <c r="AA37" s="92"/>
+      <c r="AB37" s="100"/>
+    </row>
+    <row r="38" spans="1:28" s="26" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="90"/>
+      <c r="B38" s="91">
+        <v>14</v>
+      </c>
+      <c r="C38" s="92"/>
+      <c r="D38" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="104" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="93">
+        <v>5</v>
+      </c>
+      <c r="H38" s="93">
+        <v>5</v>
+      </c>
+      <c r="I38" s="93">
+        <v>5</v>
+      </c>
+      <c r="J38" s="93">
+        <v>5</v>
+      </c>
+      <c r="K38" s="93">
+        <v>5</v>
+      </c>
+      <c r="L38" s="93">
+        <v>5</v>
+      </c>
+      <c r="M38" s="93">
+        <v>5</v>
+      </c>
+      <c r="N38" s="93">
+        <v>5</v>
+      </c>
+      <c r="O38" s="93">
+        <v>5</v>
+      </c>
+      <c r="P38" s="92"/>
+      <c r="Q38" s="92"/>
+      <c r="R38" s="92"/>
+      <c r="S38" s="92"/>
+      <c r="T38" s="92"/>
+      <c r="U38" s="97"/>
+      <c r="V38" s="94"/>
+      <c r="W38" s="92"/>
+      <c r="X38" s="92"/>
+      <c r="Y38" s="92"/>
+      <c r="Z38" s="92"/>
+      <c r="AA38" s="92"/>
+      <c r="AB38" s="100"/>
+    </row>
+    <row r="39" spans="1:28" s="26" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="90"/>
+      <c r="B39" s="91">
+        <v>15</v>
+      </c>
+      <c r="C39" s="92"/>
+      <c r="D39" s="98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="104" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="115">
+        <v>6</v>
+      </c>
+      <c r="H39" s="115">
+        <v>6</v>
+      </c>
+      <c r="I39" s="115">
+        <v>6</v>
+      </c>
+      <c r="J39" s="115">
+        <v>6</v>
+      </c>
+      <c r="K39" s="115">
+        <v>6</v>
+      </c>
+      <c r="L39" s="115">
+        <v>6</v>
+      </c>
+      <c r="M39" s="115">
+        <v>6</v>
+      </c>
+      <c r="N39" s="115">
+        <v>6</v>
+      </c>
+      <c r="O39" s="115">
+        <v>6</v>
+      </c>
+      <c r="P39" s="115">
+        <v>6</v>
+      </c>
+      <c r="Q39" s="115">
+        <v>6</v>
+      </c>
+      <c r="R39" s="92"/>
+      <c r="S39" s="92"/>
+      <c r="T39" s="92"/>
+      <c r="U39" s="97"/>
+      <c r="V39" s="94"/>
+      <c r="W39" s="92"/>
+      <c r="X39" s="92"/>
+      <c r="Y39" s="92"/>
+      <c r="Z39" s="92"/>
+      <c r="AA39" s="92"/>
+      <c r="AB39" s="100"/>
+    </row>
+    <row r="40" spans="1:28" s="26" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="90"/>
+      <c r="B40" s="91">
+        <v>16</v>
+      </c>
+      <c r="C40" s="92"/>
+      <c r="D40" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="104" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="93">
+        <v>7</v>
+      </c>
+      <c r="H40" s="93">
+        <v>7</v>
+      </c>
+      <c r="I40" s="93">
+        <v>7</v>
+      </c>
+      <c r="J40" s="93">
+        <v>7</v>
+      </c>
+      <c r="K40" s="93">
+        <v>7</v>
+      </c>
+      <c r="L40" s="93">
+        <v>7</v>
+      </c>
+      <c r="M40" s="93">
+        <v>7</v>
+      </c>
+      <c r="N40" s="93">
+        <v>7</v>
+      </c>
+      <c r="O40" s="93">
+        <v>7</v>
+      </c>
+      <c r="P40" s="93">
+        <v>7</v>
+      </c>
+      <c r="Q40" s="93">
+        <v>7</v>
+      </c>
+      <c r="R40" s="93">
+        <v>7</v>
+      </c>
+      <c r="S40" s="92"/>
+      <c r="T40" s="92"/>
+      <c r="U40" s="97"/>
+      <c r="V40" s="94"/>
+      <c r="W40" s="92"/>
+      <c r="X40" s="92"/>
+      <c r="Y40" s="92"/>
+      <c r="Z40" s="92"/>
+      <c r="AA40" s="92"/>
+      <c r="AB40" s="100"/>
+    </row>
+    <row r="41" spans="1:28" s="26" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="90"/>
+      <c r="B41" s="91">
+        <v>17</v>
+      </c>
+      <c r="C41" s="92"/>
+      <c r="D41" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="93">
+        <v>7</v>
+      </c>
+      <c r="H41" s="91"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="92"/>
+      <c r="K41" s="92"/>
+      <c r="L41" s="92"/>
+      <c r="M41" s="92"/>
+      <c r="N41" s="97"/>
+      <c r="O41" s="98"/>
+      <c r="P41" s="92"/>
+      <c r="Q41" s="92"/>
+      <c r="R41" s="92"/>
+      <c r="S41" s="92"/>
+      <c r="T41" s="92"/>
+      <c r="U41" s="97"/>
+      <c r="V41" s="94"/>
+      <c r="W41" s="92"/>
+      <c r="X41" s="92"/>
+      <c r="Y41" s="92"/>
+      <c r="Z41" s="92"/>
+      <c r="AA41" s="92"/>
+      <c r="AB41" s="100"/>
+    </row>
+    <row r="42" spans="1:28" s="26" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="81">
         <v>18</v>
       </c>
-      <c r="G24" s="88" t="s">
+      <c r="C42" s="82"/>
+      <c r="D42" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="84">
+        <v>7</v>
+      </c>
+      <c r="H42" s="81">
+        <v>7</v>
+      </c>
+      <c r="I42" s="81">
+        <v>7</v>
+      </c>
+      <c r="J42" s="81">
+        <v>7</v>
+      </c>
+      <c r="K42" s="81">
+        <v>7</v>
+      </c>
+      <c r="L42" s="81">
+        <v>7</v>
+      </c>
+      <c r="M42" s="81">
+        <v>7</v>
+      </c>
+      <c r="N42" s="81">
+        <v>7</v>
+      </c>
+      <c r="O42" s="81">
+        <v>7</v>
+      </c>
+      <c r="P42" s="81">
+        <v>7</v>
+      </c>
+      <c r="Q42" s="81">
+        <v>7</v>
+      </c>
+      <c r="R42" s="81">
+        <v>7</v>
+      </c>
+      <c r="S42" s="81">
+        <v>7</v>
+      </c>
+      <c r="T42" s="82">
+        <v>14</v>
+      </c>
+      <c r="U42" s="97">
+        <v>14</v>
+      </c>
+      <c r="V42" s="94">
+        <v>14</v>
+      </c>
+      <c r="W42" s="82">
+        <v>13</v>
+      </c>
+      <c r="X42" s="82">
+        <v>10</v>
+      </c>
+      <c r="Y42" s="82">
+        <v>7</v>
+      </c>
+      <c r="Z42" s="82">
+        <v>4</v>
+      </c>
+      <c r="AA42" s="82">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" s="26" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="90"/>
+      <c r="B43" s="91">
         <v>19</v>
       </c>
-      <c r="H24" s="20">
-        <v>41579</v>
-      </c>
-      <c r="I24" s="20">
-        <v>41580</v>
-      </c>
-      <c r="J24" s="20">
-        <v>41581</v>
-      </c>
-      <c r="K24" s="20">
-        <v>41582</v>
-      </c>
-      <c r="L24" s="20">
-        <v>41583</v>
-      </c>
-      <c r="M24" s="20">
-        <v>41584</v>
-      </c>
-      <c r="N24" s="20">
-        <v>41585</v>
-      </c>
-      <c r="O24" s="20">
-        <v>41586</v>
-      </c>
-      <c r="P24" s="20">
-        <v>41587</v>
-      </c>
-      <c r="Q24" s="63">
-        <v>41588</v>
-      </c>
-      <c r="R24" s="20">
-        <v>41589</v>
-      </c>
-      <c r="S24" s="20">
-        <v>41590</v>
-      </c>
-      <c r="T24" s="20">
-        <v>41591</v>
-      </c>
-      <c r="U24" s="20">
-        <v>41592</v>
-      </c>
-      <c r="V24" s="20">
-        <v>41593</v>
-      </c>
-      <c r="W24" s="20">
-        <v>41594</v>
-      </c>
-      <c r="X24" s="20">
-        <v>41595</v>
-      </c>
-      <c r="Y24" s="20">
-        <v>41596</v>
-      </c>
-      <c r="Z24" s="20">
-        <v>41597</v>
-      </c>
-      <c r="AA24" s="20">
-        <v>41598</v>
-      </c>
-      <c r="AB24" s="20">
-        <v>41599</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" s="26" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="82">
+      <c r="C43" s="92"/>
+      <c r="D43" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="93">
+        <v>7</v>
+      </c>
+      <c r="H43" s="93">
+        <v>7</v>
+      </c>
+      <c r="I43" s="93">
+        <v>7</v>
+      </c>
+      <c r="J43" s="93">
+        <v>7</v>
+      </c>
+      <c r="K43" s="93">
+        <v>7</v>
+      </c>
+      <c r="L43" s="93">
+        <v>7</v>
+      </c>
+      <c r="M43" s="93">
+        <v>7</v>
+      </c>
+      <c r="N43" s="93">
+        <v>7</v>
+      </c>
+      <c r="O43" s="93">
+        <v>7</v>
+      </c>
+      <c r="P43" s="92"/>
+      <c r="Q43" s="92"/>
+      <c r="R43" s="92"/>
+      <c r="S43" s="92"/>
+      <c r="T43" s="92"/>
+      <c r="U43" s="97"/>
+      <c r="V43" s="94"/>
+      <c r="W43" s="92"/>
+      <c r="X43" s="92"/>
+      <c r="Y43" s="92"/>
+      <c r="Z43" s="92"/>
+      <c r="AA43" s="92"/>
+      <c r="AB43" s="100"/>
+    </row>
+    <row r="44" spans="1:28" s="26" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="90"/>
+      <c r="B44" s="91">
+        <v>20</v>
+      </c>
+      <c r="C44" s="92"/>
+      <c r="D44" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="F44" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="93">
+        <v>7</v>
+      </c>
+      <c r="H44" s="93">
+        <v>7</v>
+      </c>
+      <c r="I44" s="93">
+        <v>7</v>
+      </c>
+      <c r="J44" s="93">
+        <v>7</v>
+      </c>
+      <c r="K44" s="93">
+        <v>7</v>
+      </c>
+      <c r="L44" s="93">
+        <v>7</v>
+      </c>
+      <c r="M44" s="93">
+        <v>7</v>
+      </c>
+      <c r="N44" s="93">
+        <v>7</v>
+      </c>
+      <c r="O44" s="93">
+        <v>7</v>
+      </c>
+      <c r="P44" s="92"/>
+      <c r="Q44" s="92"/>
+      <c r="R44" s="92"/>
+      <c r="S44" s="92"/>
+      <c r="T44" s="92"/>
+      <c r="U44" s="97"/>
+      <c r="V44" s="94"/>
+      <c r="W44" s="92"/>
+      <c r="X44" s="92"/>
+      <c r="Y44" s="92"/>
+      <c r="Z44" s="92"/>
+      <c r="AA44" s="92"/>
+      <c r="AB44" s="100"/>
+    </row>
+    <row r="45" spans="1:28" s="26" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10"/>
+      <c r="B45" s="81">
+        <v>21</v>
+      </c>
+      <c r="C45" s="82"/>
+      <c r="D45" s="113" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="84">
+        <v>5</v>
+      </c>
+      <c r="H45" s="81">
+        <v>4</v>
+      </c>
+      <c r="I45" s="82">
+        <v>4</v>
+      </c>
+      <c r="J45" s="82">
+        <v>4</v>
+      </c>
+      <c r="K45" s="82">
+        <v>4</v>
+      </c>
+      <c r="L45" s="82">
+        <v>4</v>
+      </c>
+      <c r="M45" s="82">
+        <v>4</v>
+      </c>
+      <c r="N45" s="97">
+        <v>4</v>
+      </c>
+      <c r="O45" s="98">
+        <v>2</v>
+      </c>
+      <c r="P45" s="82">
+        <v>2</v>
+      </c>
+      <c r="Q45" s="82">
+        <v>2</v>
+      </c>
+      <c r="R45" s="82">
+        <v>2</v>
+      </c>
+      <c r="S45" s="82">
+        <v>2</v>
+      </c>
+      <c r="T45" s="82">
         <v>1</v>
       </c>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83" t="s">
+      <c r="U45" s="97">
+        <v>0</v>
+      </c>
+      <c r="V45" s="94">
+        <v>0</v>
+      </c>
+      <c r="W45" s="82">
+        <v>0</v>
+      </c>
+      <c r="X45" s="82">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="82">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="82">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="82">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" s="26" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="10"/>
+      <c r="B46" s="81">
+        <v>22</v>
+      </c>
+      <c r="C46" s="82"/>
+      <c r="D46" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="86" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="91" t="s">
+      <c r="E46" s="112" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="84">
+        <v>5</v>
+      </c>
+      <c r="H46" s="81">
+        <v>2</v>
+      </c>
+      <c r="I46" s="82">
+        <v>2</v>
+      </c>
+      <c r="J46" s="82">
+        <v>2</v>
+      </c>
+      <c r="K46" s="82">
+        <v>2</v>
+      </c>
+      <c r="L46" s="82">
+        <v>2</v>
+      </c>
+      <c r="M46" s="82">
+        <v>2</v>
+      </c>
+      <c r="N46" s="97">
+        <v>2</v>
+      </c>
+      <c r="O46" s="98">
+        <v>2</v>
+      </c>
+      <c r="P46" s="82">
+        <v>2</v>
+      </c>
+      <c r="Q46" s="82">
+        <v>2</v>
+      </c>
+      <c r="R46" s="82">
+        <v>2</v>
+      </c>
+      <c r="S46" s="82">
+        <v>1</v>
+      </c>
+      <c r="T46" s="82">
+        <v>1</v>
+      </c>
+      <c r="U46" s="97">
+        <v>1</v>
+      </c>
+      <c r="V46" s="94">
+        <v>1</v>
+      </c>
+      <c r="W46" s="82">
+        <v>1</v>
+      </c>
+      <c r="X46" s="82">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="82">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="82">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="82">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" s="62" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="85">
-        <v>7.5</v>
-      </c>
-      <c r="H25" s="82">
-        <v>6</v>
-      </c>
-      <c r="I25" s="83">
-        <v>6</v>
-      </c>
-      <c r="J25" s="83">
-        <v>6</v>
-      </c>
-      <c r="K25" s="83">
-        <v>6</v>
-      </c>
-      <c r="L25" s="83">
-        <v>4.5</v>
-      </c>
-      <c r="M25" s="83">
-        <v>4.5</v>
-      </c>
-      <c r="N25" s="83">
-        <v>4.5</v>
-      </c>
-      <c r="O25" s="83">
-        <v>3</v>
-      </c>
-      <c r="P25" s="83">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="83">
-        <v>3</v>
-      </c>
-      <c r="R25" s="83">
-        <v>3</v>
-      </c>
-      <c r="S25" s="83">
-        <v>3</v>
-      </c>
-      <c r="T25" s="83">
-        <v>3</v>
-      </c>
-      <c r="U25" s="99">
-        <v>3</v>
-      </c>
-      <c r="V25" s="96">
-        <v>3</v>
-      </c>
-      <c r="W25" s="83">
-        <v>3</v>
-      </c>
-      <c r="X25" s="83">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="83">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="83">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="83">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" s="26" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="82">
-        <v>2</v>
-      </c>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="84" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="85">
-        <v>12</v>
-      </c>
-      <c r="H26" s="82">
-        <v>9</v>
-      </c>
-      <c r="I26" s="83">
-        <v>9</v>
-      </c>
-      <c r="J26" s="83">
-        <v>9</v>
-      </c>
-      <c r="K26" s="83">
-        <v>9</v>
-      </c>
-      <c r="L26" s="83">
-        <v>6</v>
-      </c>
-      <c r="M26" s="83">
-        <v>6</v>
-      </c>
-      <c r="N26" s="99">
-        <v>6</v>
-      </c>
-      <c r="O26" s="100">
-        <v>3</v>
-      </c>
-      <c r="P26" s="83">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="83">
-        <v>3</v>
-      </c>
-      <c r="R26" s="83">
-        <v>3</v>
-      </c>
-      <c r="S26" s="83">
-        <v>3</v>
-      </c>
-      <c r="T26" s="83">
-        <v>3</v>
-      </c>
-      <c r="U26" s="99">
-        <v>3</v>
-      </c>
-      <c r="V26" s="96">
-        <v>3</v>
-      </c>
-      <c r="W26" s="83">
-        <v>3</v>
-      </c>
-      <c r="X26" s="83">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="83">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="83">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="83">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" s="26" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="82">
-        <v>3</v>
-      </c>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="84" t="s">
+      <c r="B47" s="54">
+        <f>COUNT(B25:B46)</f>
         <v>22</v>
       </c>
-      <c r="F27" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="85">
-        <v>6</v>
-      </c>
-      <c r="H27" s="82">
-        <v>6</v>
-      </c>
-      <c r="I27" s="83">
-        <v>6</v>
-      </c>
-      <c r="J27" s="83">
-        <v>6</v>
-      </c>
-      <c r="K27" s="83">
-        <v>6</v>
-      </c>
-      <c r="L27" s="83">
-        <v>6</v>
-      </c>
-      <c r="M27" s="83">
-        <v>6</v>
-      </c>
-      <c r="N27" s="99">
-        <v>6</v>
-      </c>
-      <c r="O27" s="100">
-        <v>6</v>
-      </c>
-      <c r="P27" s="83">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="83">
-        <v>3</v>
-      </c>
-      <c r="R27" s="83">
-        <v>3</v>
-      </c>
-      <c r="S27" s="83">
-        <v>3</v>
-      </c>
-      <c r="T27" s="83">
-        <v>3</v>
-      </c>
-      <c r="U27" s="99">
-        <v>3</v>
-      </c>
-      <c r="V27" s="96">
-        <v>3</v>
-      </c>
-      <c r="W27" s="83">
-        <v>0</v>
-      </c>
-      <c r="X27" s="83">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="83">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="83">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="83">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" s="26" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="92"/>
-      <c r="B28" s="82">
-        <v>4</v>
-      </c>
-      <c r="C28" s="94"/>
-      <c r="D28" s="97" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="113" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="95">
-        <v>4</v>
-      </c>
-      <c r="H28" s="93">
-        <v>4</v>
-      </c>
-      <c r="I28" s="94">
-        <v>4</v>
-      </c>
-      <c r="J28" s="94">
-        <v>4</v>
-      </c>
-      <c r="K28" s="94">
-        <v>4</v>
-      </c>
-      <c r="L28" s="94">
-        <v>4</v>
-      </c>
-      <c r="M28" s="94">
-        <v>4</v>
-      </c>
-      <c r="N28" s="99">
-        <v>0</v>
-      </c>
-      <c r="O28" s="100">
-        <v>0</v>
-      </c>
-      <c r="P28" s="94">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="94">
-        <v>0</v>
-      </c>
-      <c r="R28" s="94">
-        <v>0</v>
-      </c>
-      <c r="S28" s="94">
-        <v>0</v>
-      </c>
-      <c r="T28" s="94">
-        <v>0</v>
-      </c>
-      <c r="U28" s="99">
-        <v>0</v>
-      </c>
-      <c r="V28" s="96">
-        <v>2</v>
-      </c>
-      <c r="W28" s="94">
-        <v>0</v>
-      </c>
-      <c r="X28" s="94">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="94">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="94">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="94">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" s="26" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="92"/>
-      <c r="B29" s="82">
-        <v>5</v>
-      </c>
-      <c r="C29" s="94"/>
-      <c r="D29" s="97" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="98" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="95">
-        <v>10</v>
-      </c>
-      <c r="H29" s="93">
-        <v>10</v>
-      </c>
-      <c r="I29" s="94">
-        <v>10</v>
-      </c>
-      <c r="J29" s="94">
-        <v>10</v>
-      </c>
-      <c r="K29" s="94">
-        <v>10</v>
-      </c>
-      <c r="L29" s="94">
-        <v>10</v>
-      </c>
-      <c r="M29" s="94">
-        <v>10</v>
-      </c>
-      <c r="N29" s="99">
-        <v>10</v>
-      </c>
-      <c r="O29" s="100">
-        <v>6</v>
-      </c>
-      <c r="P29" s="94">
-        <v>6</v>
-      </c>
-      <c r="Q29" s="94">
-        <v>6</v>
-      </c>
-      <c r="R29" s="94">
-        <v>4</v>
-      </c>
-      <c r="S29" s="94">
-        <v>4</v>
-      </c>
-      <c r="T29" s="94">
-        <v>4</v>
-      </c>
-      <c r="U29" s="99">
-        <v>2</v>
-      </c>
-      <c r="V29" s="96">
-        <v>2</v>
-      </c>
-      <c r="W29" s="94">
-        <v>2</v>
-      </c>
-      <c r="X29" s="94">
-        <v>2</v>
-      </c>
-      <c r="Y29" s="94">
-        <v>2</v>
-      </c>
-      <c r="Z29" s="94">
-        <v>2</v>
-      </c>
-      <c r="AA29" s="94">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" s="26" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="82">
-        <v>6</v>
-      </c>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" s="85">
-        <v>24</v>
-      </c>
-      <c r="H30" s="82">
-        <v>24</v>
-      </c>
-      <c r="I30" s="83">
-        <v>24</v>
-      </c>
-      <c r="J30" s="83">
-        <v>24</v>
-      </c>
-      <c r="K30" s="83">
-        <v>24</v>
-      </c>
-      <c r="L30" s="83">
-        <v>24</v>
-      </c>
-      <c r="M30" s="83">
-        <v>24</v>
-      </c>
-      <c r="N30" s="94">
-        <v>24</v>
-      </c>
-      <c r="O30" s="94">
-        <v>16</v>
-      </c>
-      <c r="P30" s="83">
-        <v>16</v>
-      </c>
-      <c r="Q30" s="83">
-        <v>16</v>
-      </c>
-      <c r="R30" s="83">
-        <v>8</v>
-      </c>
-      <c r="S30" s="83">
-        <v>8</v>
-      </c>
-      <c r="T30" s="83">
-        <v>8</v>
-      </c>
-      <c r="U30" s="99">
-        <v>4</v>
-      </c>
-      <c r="V30" s="96">
-        <v>4</v>
-      </c>
-      <c r="W30" s="83">
-        <v>4</v>
-      </c>
-      <c r="X30" s="83">
-        <v>4</v>
-      </c>
-      <c r="Y30" s="83">
-        <v>4</v>
-      </c>
-      <c r="Z30" s="83">
-        <v>4</v>
-      </c>
-      <c r="AA30" s="83">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" s="26" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="82">
-        <v>7</v>
-      </c>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="98"/>
-      <c r="F31" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="85">
-        <v>6</v>
-      </c>
-      <c r="H31" s="82">
-        <v>6</v>
-      </c>
-      <c r="I31" s="83">
-        <v>6</v>
-      </c>
-      <c r="J31" s="83">
-        <v>6</v>
-      </c>
-      <c r="K31" s="83">
-        <v>6</v>
-      </c>
-      <c r="L31" s="83">
-        <v>6</v>
-      </c>
-      <c r="M31" s="83">
-        <v>6</v>
-      </c>
-      <c r="N31" s="99">
-        <v>6</v>
-      </c>
-      <c r="O31" s="100">
-        <v>6</v>
-      </c>
-      <c r="P31" s="83">
-        <v>6</v>
-      </c>
-      <c r="Q31" s="83">
-        <v>3</v>
-      </c>
-      <c r="R31" s="83">
-        <v>3</v>
-      </c>
-      <c r="S31" s="83">
-        <v>3</v>
-      </c>
-      <c r="T31" s="83">
-        <v>3</v>
-      </c>
-      <c r="U31" s="99">
-        <v>3</v>
-      </c>
-      <c r="V31" s="96">
-        <v>0</v>
-      </c>
-      <c r="W31" s="83">
-        <v>0</v>
-      </c>
-      <c r="X31" s="83">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="83">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="83">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="83">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" s="26" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="82">
-        <v>8</v>
-      </c>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="86"/>
-      <c r="F32" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="85">
-        <v>22</v>
-      </c>
-      <c r="H32" s="82">
-        <v>22</v>
-      </c>
-      <c r="I32" s="83">
-        <v>22</v>
-      </c>
-      <c r="J32" s="83">
-        <v>22</v>
-      </c>
-      <c r="K32" s="83">
-        <v>22</v>
-      </c>
-      <c r="L32" s="83">
-        <v>22</v>
-      </c>
-      <c r="M32" s="83">
-        <v>22</v>
-      </c>
-      <c r="N32" s="99">
-        <v>20</v>
-      </c>
-      <c r="O32" s="100">
-        <v>18</v>
-      </c>
-      <c r="P32" s="83">
-        <v>18</v>
-      </c>
-      <c r="Q32" s="83">
-        <v>17</v>
-      </c>
-      <c r="R32" s="83">
-        <v>16</v>
-      </c>
-      <c r="S32" s="83">
-        <v>15</v>
-      </c>
-      <c r="T32" s="83">
-        <v>14</v>
-      </c>
-      <c r="U32" s="99">
-        <v>14</v>
-      </c>
-      <c r="V32" s="96">
-        <v>14</v>
-      </c>
-      <c r="W32" s="83">
-        <v>13</v>
-      </c>
-      <c r="X32" s="83">
-        <v>10</v>
-      </c>
-      <c r="Y32" s="83">
-        <v>7</v>
-      </c>
-      <c r="Z32" s="83">
-        <v>4</v>
-      </c>
-      <c r="AA32" s="83">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" s="26" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="82">
-        <v>9</v>
-      </c>
-      <c r="C33" s="83"/>
-      <c r="D33" s="101" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="98"/>
-      <c r="F33" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="85">
-        <v>4</v>
-      </c>
-      <c r="H33" s="82">
-        <v>4</v>
-      </c>
-      <c r="I33" s="83">
-        <v>4</v>
-      </c>
-      <c r="J33" s="83">
-        <v>4</v>
-      </c>
-      <c r="K33" s="83">
-        <v>4</v>
-      </c>
-      <c r="L33" s="83">
-        <v>4</v>
-      </c>
-      <c r="M33" s="83">
-        <v>4</v>
-      </c>
-      <c r="N33" s="99">
-        <v>4</v>
-      </c>
-      <c r="O33" s="100">
-        <v>2</v>
-      </c>
-      <c r="P33" s="83">
-        <v>2</v>
-      </c>
-      <c r="Q33" s="83">
-        <v>2</v>
-      </c>
-      <c r="R33" s="83">
-        <v>2</v>
-      </c>
-      <c r="S33" s="83">
-        <v>2</v>
-      </c>
-      <c r="T33" s="83">
-        <v>1</v>
-      </c>
-      <c r="U33" s="99">
-        <v>0</v>
-      </c>
-      <c r="V33" s="96">
-        <v>0</v>
-      </c>
-      <c r="W33" s="83">
-        <v>0</v>
-      </c>
-      <c r="X33" s="83">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="83">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="83">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="83">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" s="26" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="82">
-        <v>10</v>
-      </c>
-      <c r="C34" s="83"/>
-      <c r="D34" s="101" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="98"/>
-      <c r="F34" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="85">
-        <v>2</v>
-      </c>
-      <c r="H34" s="82">
-        <v>2</v>
-      </c>
-      <c r="I34" s="83">
-        <v>2</v>
-      </c>
-      <c r="J34" s="83">
-        <v>2</v>
-      </c>
-      <c r="K34" s="83">
-        <v>2</v>
-      </c>
-      <c r="L34" s="83">
-        <v>2</v>
-      </c>
-      <c r="M34" s="83">
-        <v>2</v>
-      </c>
-      <c r="N34" s="99">
-        <v>2</v>
-      </c>
-      <c r="O34" s="100">
-        <v>2</v>
-      </c>
-      <c r="P34" s="83">
-        <v>2</v>
-      </c>
-      <c r="Q34" s="83">
-        <v>2</v>
-      </c>
-      <c r="R34" s="83">
-        <v>2</v>
-      </c>
-      <c r="S34" s="83">
-        <v>1</v>
-      </c>
-      <c r="T34" s="83">
-        <v>1</v>
-      </c>
-      <c r="U34" s="99">
-        <v>1</v>
-      </c>
-      <c r="V34" s="96">
-        <v>1</v>
-      </c>
-      <c r="W34" s="83">
-        <v>1</v>
-      </c>
-      <c r="X34" s="83">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="83">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="83">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="83">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" s="62" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="54">
-        <f>COUNT(B25:B34)</f>
-        <v>10</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="54">
-        <f>SUM(G25:G34)</f>
-        <v>97.5</v>
-      </c>
-      <c r="H35" s="52"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="50"/>
-    </row>
-    <row r="36" spans="1:28" s="62" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="59"/>
-      <c r="U36" s="59"/>
-      <c r="V36" s="59"/>
-      <c r="W36" s="59"/>
-      <c r="X36" s="59"/>
-      <c r="Y36" s="59"/>
-      <c r="Z36" s="59"/>
-      <c r="AA36" s="59"/>
-      <c r="AB36" s="60"/>
-    </row>
-    <row r="37" spans="1:28" s="62" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="60"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="68"/>
-      <c r="N37" s="68"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="64"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="64"/>
-      <c r="W37" s="64"/>
-      <c r="X37" s="64"/>
-      <c r="Y37" s="64"/>
-      <c r="Z37" s="64"/>
-      <c r="AA37" s="64"/>
-      <c r="AB37" s="1"/>
-    </row>
-    <row r="38" spans="1:28" s="35" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="60"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="F38" s="76"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="54">
-        <f t="shared" ref="H38:Y38" si="0">SUM(H25:H34)</f>
-        <v>93</v>
-      </c>
-      <c r="I38" s="54">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="J38" s="54">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="K38" s="54">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="L38" s="54">
-        <f t="shared" si="0"/>
-        <v>88.5</v>
-      </c>
-      <c r="M38" s="54">
-        <f t="shared" si="0"/>
-        <v>88.5</v>
-      </c>
-      <c r="N38" s="54">
-        <f t="shared" si="0"/>
-        <v>82.5</v>
-      </c>
-      <c r="O38" s="54">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="P38" s="54">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="Q38" s="54">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="R38" s="54">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="S38" s="54">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="T38" s="54">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="U38" s="54">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="V38" s="54">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="W38" s="54">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="X38" s="54">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="Y38" s="54">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="Z38" s="54">
-        <v>3</v>
-      </c>
-      <c r="AA38" s="54">
-        <f>SUM(AA25:AA34)</f>
-        <v>0</v>
-      </c>
-      <c r="AB38" s="54">
-        <f>SUM(AB25:AB34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="60"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" s="76"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="45">
-        <v>10</v>
-      </c>
-      <c r="I39" s="45">
-        <v>10</v>
-      </c>
-      <c r="J39" s="45">
-        <v>10</v>
-      </c>
-      <c r="K39" s="45">
-        <v>10</v>
-      </c>
-      <c r="L39" s="45">
-        <v>10</v>
-      </c>
-      <c r="M39" s="45">
-        <v>10</v>
-      </c>
-      <c r="N39" s="45">
-        <v>9</v>
-      </c>
-      <c r="O39" s="45">
-        <v>9</v>
-      </c>
-      <c r="P39" s="45">
-        <v>9</v>
-      </c>
-      <c r="Q39" s="45">
-        <v>9</v>
-      </c>
-      <c r="R39" s="45">
-        <v>9</v>
-      </c>
-      <c r="S39" s="45">
-        <v>9</v>
-      </c>
-      <c r="T39" s="45">
-        <v>9</v>
-      </c>
-      <c r="U39" s="45">
-        <v>8</v>
-      </c>
-      <c r="V39" s="45">
-        <v>8</v>
-      </c>
-      <c r="W39" s="45">
-        <v>7</v>
-      </c>
-      <c r="X39" s="45">
-        <v>4</v>
-      </c>
-      <c r="Y39" s="45">
-        <v>3</v>
-      </c>
-      <c r="Z39" s="45">
-        <v>3</v>
-      </c>
-      <c r="AA39" s="45">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="60"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="70"/>
-      <c r="N40" s="70"/>
-      <c r="O40" s="70"/>
-      <c r="P40" s="70"/>
-      <c r="Q40" s="70"/>
-      <c r="R40" s="70"/>
-      <c r="S40" s="70"/>
-      <c r="T40" s="70"/>
-      <c r="U40" s="70"/>
-      <c r="V40" s="70"/>
-      <c r="W40" s="70"/>
-      <c r="X40" s="70"/>
-      <c r="Y40" s="70"/>
-      <c r="Z40" s="70"/>
-      <c r="AA40" s="70"/>
-      <c r="AB40" s="65"/>
-    </row>
-    <row r="41" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="60"/>
-      <c r="B41" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="59"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="59"/>
-      <c r="S41" s="59"/>
-      <c r="T41" s="59"/>
-      <c r="U41" s="59"/>
-      <c r="V41" s="59"/>
-      <c r="W41" s="59"/>
-      <c r="X41" s="59"/>
-      <c r="Y41" s="59"/>
-      <c r="Z41" s="59"/>
-      <c r="AA41" s="59"/>
-      <c r="AB41" s="60"/>
-    </row>
-    <row r="42" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="60"/>
-      <c r="B42" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="59"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="59"/>
-      <c r="U42" s="59"/>
-      <c r="V42" s="59"/>
-      <c r="W42" s="59"/>
-      <c r="X42" s="59"/>
-      <c r="Y42" s="59"/>
-      <c r="Z42" s="59"/>
-      <c r="AA42" s="59"/>
-      <c r="AB42" s="60"/>
-    </row>
-    <row r="43" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
-      <c r="B43" s="111" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="74">
-        <v>12781351</v>
-      </c>
-      <c r="D43" s="74"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="59"/>
-      <c r="M43" s="59"/>
-      <c r="N43" s="59"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="59"/>
-      <c r="S43" s="59"/>
-      <c r="T43" s="59"/>
-      <c r="U43" s="59"/>
-      <c r="V43" s="59"/>
-      <c r="W43" s="59"/>
-      <c r="X43" s="59"/>
-      <c r="Y43" s="59"/>
-      <c r="Z43" s="59"/>
-      <c r="AA43" s="59"/>
-      <c r="AB43" s="60"/>
-    </row>
-    <row r="44" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="111" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="74">
-        <v>12847737</v>
-      </c>
-      <c r="D44" s="74"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="59"/>
-      <c r="M44" s="59"/>
-      <c r="N44" s="59"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="59"/>
-      <c r="S44" s="59"/>
-      <c r="T44" s="59"/>
-      <c r="U44" s="59"/>
-      <c r="V44" s="59"/>
-      <c r="W44" s="59"/>
-      <c r="X44" s="59"/>
-      <c r="Y44" s="59"/>
-      <c r="Z44" s="59"/>
-      <c r="AA44" s="59"/>
-      <c r="AB44" s="60"/>
-    </row>
-    <row r="45" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
-      <c r="B45" s="112" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="74">
-        <v>12902622</v>
-      </c>
-      <c r="D45" s="74"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="59"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="59"/>
-      <c r="S45" s="59"/>
-      <c r="T45" s="59"/>
-      <c r="U45" s="59"/>
-      <c r="V45" s="59"/>
-      <c r="W45" s="59"/>
-      <c r="X45" s="59"/>
-      <c r="Y45" s="59"/>
-      <c r="Z45" s="59"/>
-      <c r="AA45" s="59"/>
-      <c r="AB45" s="60"/>
-    </row>
-    <row r="46" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="60"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="59"/>
-      <c r="N46" s="59"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="59"/>
-      <c r="R46" s="59"/>
-      <c r="S46" s="59"/>
-      <c r="T46" s="59"/>
-      <c r="U46" s="59"/>
-      <c r="V46" s="59"/>
-      <c r="W46" s="59"/>
-      <c r="X46" s="59"/>
-      <c r="Y46" s="59"/>
-      <c r="Z46" s="59"/>
-      <c r="AA46" s="59"/>
-      <c r="AB46" s="60"/>
-    </row>
-    <row r="47" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="60"/>
-      <c r="B47" s="74"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="59"/>
-      <c r="N47" s="59"/>
-      <c r="O47" s="59"/>
-      <c r="P47" s="59"/>
-      <c r="Q47" s="59"/>
-      <c r="R47" s="59"/>
-      <c r="S47" s="59"/>
-      <c r="T47" s="59"/>
-      <c r="U47" s="59"/>
-      <c r="V47" s="59"/>
-      <c r="W47" s="59"/>
-      <c r="X47" s="59"/>
-      <c r="Y47" s="59"/>
-      <c r="Z47" s="59"/>
-      <c r="AA47" s="59"/>
-      <c r="AB47" s="60"/>
-    </row>
-    <row r="48" spans="1:28" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="60"/>
-      <c r="B48" s="74"/>
-      <c r="C48" s="74"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="59"/>
-      <c r="M48" s="59"/>
-      <c r="N48" s="59"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="54">
+        <f>SUM(G25:G46)</f>
+        <v>202</v>
+      </c>
+      <c r="H47" s="52"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="31"/>
+      <c r="T47" s="31"/>
+      <c r="U47" s="31"/>
+      <c r="V47" s="31"/>
+      <c r="W47" s="31"/>
+      <c r="X47" s="31"/>
+      <c r="Y47" s="31"/>
+      <c r="Z47" s="31"/>
+      <c r="AA47" s="31"/>
+      <c r="AB47" s="50"/>
+    </row>
+    <row r="48" spans="1:28" s="62" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="25"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
       <c r="O48" s="59"/>
       <c r="P48" s="59"/>
       <c r="Q48" s="59"/>
@@ -4947,35 +5199,519 @@
       <c r="AA48" s="59"/>
       <c r="AB48" s="60"/>
     </row>
-    <row r="49" spans="1:28" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" s="62" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="60"/>
-      <c r="B49" s="74"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="59"/>
-      <c r="N49" s="59"/>
-      <c r="O49" s="59"/>
-      <c r="P49" s="59"/>
-      <c r="Q49" s="59"/>
-      <c r="R49" s="59"/>
-      <c r="S49" s="59"/>
-      <c r="T49" s="59"/>
-      <c r="U49" s="59"/>
-      <c r="V49" s="59"/>
-      <c r="W49" s="59"/>
-      <c r="X49" s="59"/>
-      <c r="Y49" s="59"/>
-      <c r="Z49" s="59"/>
-      <c r="AA49" s="59"/>
-      <c r="AB49" s="60"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="67"/>
+      <c r="M49" s="67"/>
+      <c r="N49" s="67"/>
+      <c r="O49" s="63"/>
+      <c r="P49" s="63"/>
+      <c r="Q49" s="63"/>
+      <c r="R49" s="63"/>
+      <c r="S49" s="63"/>
+      <c r="T49" s="63"/>
+      <c r="U49" s="63"/>
+      <c r="V49" s="63"/>
+      <c r="W49" s="63"/>
+      <c r="X49" s="63"/>
+      <c r="Y49" s="63"/>
+      <c r="Z49" s="63"/>
+      <c r="AA49" s="63"/>
+      <c r="AB49" s="1"/>
+    </row>
+    <row r="50" spans="1:28" s="35" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="60"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="75"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="54">
+        <f t="shared" ref="H50:Y50" si="0">SUM(H25:H46)</f>
+        <v>161</v>
+      </c>
+      <c r="I50" s="54">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="J50" s="54">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="K50" s="54">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="L50" s="54">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="M50" s="54">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="N50" s="54">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="O50" s="54">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="P50" s="54">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="Q50" s="54">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="R50" s="54">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="S50" s="54">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="T50" s="54">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="U50" s="54">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="V50" s="54">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="W50" s="54">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="X50" s="54">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="Y50" s="54">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Z50" s="54">
+        <v>3</v>
+      </c>
+      <c r="AA50" s="54">
+        <f>SUM(AA25:AA46)</f>
+        <v>0</v>
+      </c>
+      <c r="AB50" s="54">
+        <f>SUM(AB25:AB46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="60"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="75"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="45">
+        <v>10</v>
+      </c>
+      <c r="I51" s="45">
+        <v>10</v>
+      </c>
+      <c r="J51" s="45">
+        <v>10</v>
+      </c>
+      <c r="K51" s="45">
+        <v>10</v>
+      </c>
+      <c r="L51" s="45">
+        <v>10</v>
+      </c>
+      <c r="M51" s="45">
+        <v>10</v>
+      </c>
+      <c r="N51" s="45">
+        <v>9</v>
+      </c>
+      <c r="O51" s="45">
+        <v>9</v>
+      </c>
+      <c r="P51" s="45">
+        <v>9</v>
+      </c>
+      <c r="Q51" s="45">
+        <v>9</v>
+      </c>
+      <c r="R51" s="45">
+        <v>9</v>
+      </c>
+      <c r="S51" s="45">
+        <v>9</v>
+      </c>
+      <c r="T51" s="45">
+        <v>9</v>
+      </c>
+      <c r="U51" s="45">
+        <v>8</v>
+      </c>
+      <c r="V51" s="45">
+        <v>8</v>
+      </c>
+      <c r="W51" s="45">
+        <v>7</v>
+      </c>
+      <c r="X51" s="45">
+        <v>4</v>
+      </c>
+      <c r="Y51" s="45">
+        <v>3</v>
+      </c>
+      <c r="Z51" s="45">
+        <v>3</v>
+      </c>
+      <c r="AA51" s="45">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="60"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="69"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="69"/>
+      <c r="M52" s="69"/>
+      <c r="N52" s="69"/>
+      <c r="O52" s="69"/>
+      <c r="P52" s="69"/>
+      <c r="Q52" s="69"/>
+      <c r="R52" s="69"/>
+      <c r="S52" s="69"/>
+      <c r="T52" s="69"/>
+      <c r="U52" s="69"/>
+      <c r="V52" s="69"/>
+      <c r="W52" s="69"/>
+      <c r="X52" s="69"/>
+      <c r="Y52" s="69"/>
+      <c r="Z52" s="69"/>
+      <c r="AA52" s="69"/>
+      <c r="AB52" s="64"/>
+    </row>
+    <row r="53" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="60"/>
+      <c r="B53" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="59"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="59"/>
+      <c r="Q53" s="59"/>
+      <c r="R53" s="59"/>
+      <c r="S53" s="59"/>
+      <c r="T53" s="59"/>
+      <c r="U53" s="59"/>
+      <c r="V53" s="59"/>
+      <c r="W53" s="59"/>
+      <c r="X53" s="59"/>
+      <c r="Y53" s="59"/>
+      <c r="Z53" s="59"/>
+      <c r="AA53" s="59"/>
+      <c r="AB53" s="60"/>
+    </row>
+    <row r="54" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="60"/>
+      <c r="B54" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="59"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="59"/>
+      <c r="Q54" s="59"/>
+      <c r="R54" s="59"/>
+      <c r="S54" s="59"/>
+      <c r="T54" s="59"/>
+      <c r="U54" s="59"/>
+      <c r="V54" s="59"/>
+      <c r="W54" s="59"/>
+      <c r="X54" s="59"/>
+      <c r="Y54" s="59"/>
+      <c r="Z54" s="59"/>
+      <c r="AA54" s="59"/>
+      <c r="AB54" s="60"/>
+    </row>
+    <row r="55" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="60"/>
+      <c r="B55" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="73">
+        <v>12781351</v>
+      </c>
+      <c r="D55" s="73"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="59"/>
+      <c r="N55" s="59"/>
+      <c r="O55" s="59"/>
+      <c r="P55" s="59"/>
+      <c r="Q55" s="59"/>
+      <c r="R55" s="59"/>
+      <c r="S55" s="59"/>
+      <c r="T55" s="59"/>
+      <c r="U55" s="59"/>
+      <c r="V55" s="59"/>
+      <c r="W55" s="59"/>
+      <c r="X55" s="59"/>
+      <c r="Y55" s="59"/>
+      <c r="Z55" s="59"/>
+      <c r="AA55" s="59"/>
+      <c r="AB55" s="60"/>
+    </row>
+    <row r="56" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="60"/>
+      <c r="B56" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="73">
+        <v>12847737</v>
+      </c>
+      <c r="D56" s="73"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="59"/>
+      <c r="M56" s="59"/>
+      <c r="N56" s="59"/>
+      <c r="O56" s="59"/>
+      <c r="P56" s="59"/>
+      <c r="Q56" s="59"/>
+      <c r="R56" s="59"/>
+      <c r="S56" s="59"/>
+      <c r="T56" s="59"/>
+      <c r="U56" s="59"/>
+      <c r="V56" s="59"/>
+      <c r="W56" s="59"/>
+      <c r="X56" s="59"/>
+      <c r="Y56" s="59"/>
+      <c r="Z56" s="59"/>
+      <c r="AA56" s="59"/>
+      <c r="AB56" s="60"/>
+    </row>
+    <row r="57" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="60"/>
+      <c r="B57" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="73">
+        <v>12902622</v>
+      </c>
+      <c r="D57" s="73"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="59"/>
+      <c r="N57" s="59"/>
+      <c r="O57" s="59"/>
+      <c r="P57" s="59"/>
+      <c r="Q57" s="59"/>
+      <c r="R57" s="59"/>
+      <c r="S57" s="59"/>
+      <c r="T57" s="59"/>
+      <c r="U57" s="59"/>
+      <c r="V57" s="59"/>
+      <c r="W57" s="59"/>
+      <c r="X57" s="59"/>
+      <c r="Y57" s="59"/>
+      <c r="Z57" s="59"/>
+      <c r="AA57" s="59"/>
+      <c r="AB57" s="60"/>
+    </row>
+    <row r="58" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="60"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="59"/>
+      <c r="M58" s="59"/>
+      <c r="N58" s="59"/>
+      <c r="O58" s="59"/>
+      <c r="P58" s="59"/>
+      <c r="Q58" s="59"/>
+      <c r="R58" s="59"/>
+      <c r="S58" s="59"/>
+      <c r="T58" s="59"/>
+      <c r="U58" s="59"/>
+      <c r="V58" s="59"/>
+      <c r="W58" s="59"/>
+      <c r="X58" s="59"/>
+      <c r="Y58" s="59"/>
+      <c r="Z58" s="59"/>
+      <c r="AA58" s="59"/>
+      <c r="AB58" s="60"/>
+    </row>
+    <row r="59" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="60"/>
+      <c r="B59" s="73"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="73"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="59"/>
+      <c r="M59" s="59"/>
+      <c r="N59" s="59"/>
+      <c r="O59" s="59"/>
+      <c r="P59" s="59"/>
+      <c r="Q59" s="59"/>
+      <c r="R59" s="59"/>
+      <c r="S59" s="59"/>
+      <c r="T59" s="59"/>
+      <c r="U59" s="59"/>
+      <c r="V59" s="59"/>
+      <c r="W59" s="59"/>
+      <c r="X59" s="59"/>
+      <c r="Y59" s="59"/>
+      <c r="Z59" s="59"/>
+      <c r="AA59" s="59"/>
+      <c r="AB59" s="60"/>
+    </row>
+    <row r="60" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="60"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="59"/>
+      <c r="M60" s="59"/>
+      <c r="N60" s="59"/>
+      <c r="O60" s="59"/>
+      <c r="P60" s="59"/>
+      <c r="Q60" s="59"/>
+      <c r="R60" s="59"/>
+      <c r="S60" s="59"/>
+      <c r="T60" s="59"/>
+      <c r="U60" s="59"/>
+      <c r="V60" s="59"/>
+      <c r="W60" s="59"/>
+      <c r="X60" s="59"/>
+      <c r="Y60" s="59"/>
+      <c r="Z60" s="59"/>
+      <c r="AA60" s="59"/>
+      <c r="AB60" s="60"/>
+    </row>
+    <row r="61" spans="1:28" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="60"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="73"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="59"/>
+      <c r="L61" s="59"/>
+      <c r="M61" s="59"/>
+      <c r="N61" s="59"/>
+      <c r="O61" s="59"/>
+      <c r="P61" s="59"/>
+      <c r="Q61" s="59"/>
+      <c r="R61" s="59"/>
+      <c r="S61" s="59"/>
+      <c r="T61" s="59"/>
+      <c r="U61" s="59"/>
+      <c r="V61" s="59"/>
+      <c r="W61" s="59"/>
+      <c r="X61" s="59"/>
+      <c r="Y61" s="59"/>
+      <c r="Z61" s="59"/>
+      <c r="AA61" s="59"/>
+      <c r="AB61" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="4">
